--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8B9704-0D09-4679-AB9D-6A0CAEA67A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD796A-7C4B-4E2B-9969-42DBD42B9F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="13416" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="610">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4368,6 +4368,22 @@
   </si>
   <si>
     <t>（配合）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拜访，打扰）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4754,10 +4770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C206"/>
+  <dimension ref="A2:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7015,6 +7031,17 @@
       </c>
       <c r="C206" s="1" t="s">
         <v>608</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A207" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD796A-7C4B-4E2B-9969-42DBD42B9F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA3B057-FE97-41F7-94EE-FEF2B7919C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="654">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4384,6 +4384,285 @@
       </rPr>
       <t>拜访，打扰）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>したく</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准备，日常生活中琐事的准备）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>割勘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>わりかん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AA）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤ん坊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あかんぼう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>どろぼう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出し</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきだし</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越し</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひっこし</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（搬家）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（抽屉）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（小偷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(婴儿）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不在家）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行き先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆきさき</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（目的地，将来，前途）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平时）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>お釣り</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>おつり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零头）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>くろじ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（盈利）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あかじ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赤字）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さすが</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（果然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还是…）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>せわ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>照顾）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>床屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とこや</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理发店）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八百屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>やおや</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（蔬菜店）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4391,7 +4670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4461,6 +4740,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4482,7 +4769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4490,6 +4777,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4770,10 +5058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C207"/>
+  <dimension ref="A2:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F202" sqref="F202"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223:C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6876,172 +7164,359 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>570</v>
+        <v>611</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>104</v>
+        <v>584</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>591</v>
+        <v>104</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>593</v>
+        <v>105</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>609</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A210" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A212" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A213" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A215" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A218" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A219" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A223" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A224" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA3B057-FE97-41F7-94EE-FEF2B7919C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE96D5-A1C0-4964-BB6A-2E5D7C3F38B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="657">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4663,6 +4663,30 @@
   </si>
   <si>
     <t>（蔬菜店）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやまる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道歉，谢罪）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5058,10 +5082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C224"/>
+  <dimension ref="A2:C225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223:C224"/>
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7517,6 +7541,17 @@
       </c>
       <c r="C224" s="1" t="s">
         <v>653</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE96D5-A1C0-4964-BB6A-2E5D7C3F38B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E449E-BC91-4C98-AE54-47A022A40862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="678">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4686,6 +4686,174 @@
         <charset val="134"/>
       </rPr>
       <t>道歉，谢罪）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕送り</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しおくり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生活费）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打ち合わせ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>うちあわせ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商量，协商，碰头）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>売上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>うりあげ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营业额，营销额）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繰り返す</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>くりかえす</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反复地做，重复地做）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽古</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいこ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>练习）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>採点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいてん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打分）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっか</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发货）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5082,10 +5250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C225"/>
+  <dimension ref="A2:C232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7552,6 +7720,83 @@
       </c>
       <c r="C225" s="1" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A226" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A232" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E449E-BC91-4C98-AE54-47A022A40862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8408A-487F-4809-AE56-168AAA5C91B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="690">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4855,6 +4855,66 @@
       </rPr>
       <t>发货）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小遣い</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こづかい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零花钱）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とくい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（上手）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遣り取り</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>やりとり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(exchange）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>がまん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（忍耐）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5250,10 +5310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C232"/>
+  <dimension ref="A2:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7797,6 +7857,50 @@
       </c>
       <c r="C232" s="1" t="s">
         <v>677</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A235" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A236" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8408A-487F-4809-AE56-168AAA5C91B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FEDBAB-B342-469D-9246-918626AE2EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="695">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4915,6 +4915,50 @@
   </si>
   <si>
     <t>（忍耐）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准备）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大致，大概）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5310,10 +5354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C236"/>
+  <dimension ref="A2:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7901,6 +7945,33 @@
       </c>
       <c r="C236" s="1" t="s">
         <v>689</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A237" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A238" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C239" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67A51BA-7DE2-4760-8B09-3780AD8EC6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB590F2C-F123-45B5-BC29-4B4DEBCE3251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="0" windowWidth="12912" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="679">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4800,6 +4800,42 @@
         <charset val="134"/>
       </rPr>
       <t>积极）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃逆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃっくり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（打嗝）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得意先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>とくいさき</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老客户）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5188,10 +5224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E223"/>
+  <dimension ref="A2:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7660,6 +7696,28 @@
       </c>
       <c r="C223" s="1" t="s">
         <v>672</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A224" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB590F2C-F123-45B5-BC29-4B4DEBCE3251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A2EC17-B5C0-4C8F-AE59-E6286C4EA0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="0" windowWidth="12912" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="698">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4836,6 +4836,125 @@
         <charset val="134"/>
       </rPr>
       <t>老客户）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>染み</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しみ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>污点，斑痕）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>淘气、恶作剧）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>派手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はで</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（穿着打扮）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうだい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（自由自在地）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名刺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいし</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（名片）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>役目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>やくめ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（mission）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲張り</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>よくばり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贪得无厌的人）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5224,10 +5343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E225"/>
+  <dimension ref="A2:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232:C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7718,6 +7837,83 @@
       </c>
       <c r="C225" s="1" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A226" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A232" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A2EC17-B5C0-4C8F-AE59-E6286C4EA0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D95C3-8C04-453A-BC0A-A08AE1E8C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="704">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -620,10 +620,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>なかみ’</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天変地異</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4956,6 +4952,34 @@
       </rPr>
       <t>贪得无厌的人）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退屈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいくつ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（つまらない）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>にゅうりょく</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（input）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかみ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5343,10 +5367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E232"/>
+  <dimension ref="A2:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232:C232"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5365,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -5376,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5387,7 +5411,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -5398,7 +5422,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -5409,7 +5433,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -5431,7 +5455,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -5486,7 +5510,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -5508,7 +5532,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -5519,7 +5543,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5530,7 +5554,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -5585,7 +5609,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5607,7 +5631,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -5618,7 +5642,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -5629,7 +5653,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -5640,7 +5664,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -5651,18 +5675,18 @@
         <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -5695,7 +5719,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -5706,7 +5730,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -5717,7 +5741,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -5728,7 +5752,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -5750,7 +5774,7 @@
         <v>84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -5761,7 +5785,7 @@
         <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -5772,13 +5796,13 @@
         <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -5822,7 +5846,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -5833,7 +5857,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -5844,7 +5868,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -5855,7 +5879,7 @@
         <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -5866,7 +5890,7 @@
         <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -5910,7 +5934,7 @@
         <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -5921,7 +5945,7 @@
         <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -5943,7 +5967,7 @@
         <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -5987,7 +6011,7 @@
         <v>138</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -5995,329 +6019,329 @@
         <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>140</v>
+        <v>703</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -6328,183 +6352,183 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -6512,10 +6536,10 @@
         <v>98</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -6526,513 +6550,513 @@
         <v>103</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
+        <v>342</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" t="s">
         <v>344</v>
-      </c>
-      <c r="C118" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" t="s">
         <v>347</v>
-      </c>
-      <c r="C119" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C122" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B127" t="s">
         <v>381</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>382</v>
-      </c>
-      <c r="C127" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
@@ -7043,254 +7067,254 @@
         <v>99</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" t="s">
         <v>478</v>
-      </c>
-      <c r="C160" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" t="s">
         <v>481</v>
-      </c>
-      <c r="C161" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="C176" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
@@ -7301,619 +7325,641 @@
         <v>105</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C191" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="E213" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="C227" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="C232" s="5" t="s">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233" s="1" t="s">
         <v>697</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -7972,66 +8018,66 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E859166-ECB2-4937-9B21-4CD0E966B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E504F-25ED-4E80-945F-05E4DDA15E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="720">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5071,6 +5071,26 @@
         <charset val="134"/>
       </rPr>
       <t>准备，注意）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>検討</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5489,10 +5509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E237"/>
+  <dimension ref="A2:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8125,6 +8145,17 @@
       </c>
       <c r="C237" s="1" t="s">
         <v>716</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A238" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E504F-25ED-4E80-945F-05E4DDA15E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010EAA61-5DBA-4A6E-94B2-0C3AC94C33A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="723">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2345,32 +2345,6 @@
   </si>
   <si>
     <t>こんだて</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（菜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5091,6 +5065,56 @@
         <charset val="134"/>
       </rPr>
       <t>讨论）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>みほん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样本)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5509,10 +5533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E238"/>
+  <dimension ref="A2:E239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5674,7 +5698,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -5776,7 +5800,7 @@
         <v>231</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -5825,13 +5849,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -5944,10 +5968,10 @@
         <v>241</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -6164,7 +6188,7 @@
         <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>250</v>
@@ -6200,7 +6224,7 @@
         <v>147</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -6222,7 +6246,7 @@
         <v>152</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -6244,7 +6268,7 @@
         <v>160</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -6277,7 +6301,7 @@
         <v>168</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -6299,7 +6323,7 @@
         <v>173</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -6398,7 +6422,7 @@
         <v>197</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -6486,7 +6510,7 @@
         <v>220</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -6508,7 +6532,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -6629,7 +6653,7 @@
         <v>298</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -6655,25 +6679,25 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>307</v>
+      <c r="C104" s="7" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -6681,10 +6705,10 @@
         <v>98</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -6695,513 +6719,513 @@
         <v>103</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="C110" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
+        <v>330</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" t="s">
         <v>332</v>
-      </c>
-      <c r="C118" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" t="s">
         <v>335</v>
-      </c>
-      <c r="C119" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="C122" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B127" t="s">
         <v>369</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>370</v>
-      </c>
-      <c r="C127" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="C128" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B129" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C139" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="C142" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="C144" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="C145" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="C146" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="C153" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
@@ -7212,254 +7236,254 @@
         <v>99</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" t="s">
         <v>465</v>
-      </c>
-      <c r="C160" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" t="s">
         <v>468</v>
-      </c>
-      <c r="C161" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="C167" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="C176" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
@@ -7470,139 +7494,139 @@
         <v>105</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>541</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
@@ -7613,549 +7637,560 @@
         <v>218</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B195" s="7" t="s">
-        <v>564</v>
-      </c>
       <c r="C195" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B200" s="7" t="s">
-        <v>578</v>
-      </c>
       <c r="C200" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B201" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B201" s="7" t="s">
-        <v>580</v>
-      </c>
       <c r="C201" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B202" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="C202" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B204" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B204" s="7" t="s">
-        <v>587</v>
-      </c>
       <c r="C204" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B205" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="B205" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="C205" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B206" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B206" s="7" t="s">
-        <v>591</v>
-      </c>
       <c r="C206" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="C211" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B213" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="C213" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="E213" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B219" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B219" s="7" t="s">
-        <v>636</v>
-      </c>
       <c r="C219" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="C227" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="C230" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="D230" s="7"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B232" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="C232" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B234" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="B234" s="7" t="s">
-        <v>681</v>
-      </c>
       <c r="C234" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A239" s="1" t="s">
         <v>719</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010EAA61-5DBA-4A6E-94B2-0C3AC94C33A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE0E800-E7BB-475C-A778-2DE5ED674AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="722">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2128,8 +2128,340 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>（比</t>
+    <t>相違</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんしん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（身心）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配達</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいたつ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいふ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（分发，广泛发放）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（配送）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>候補者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうほしゃ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（候补）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごうりゅう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（河流合流，人会合）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手首</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>てくび</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（手腕）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>よぶん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（剩下的）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうひん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（上等品）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>器用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>みごと</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>きよう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（精巧，手巧，巧妙）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（巧妙，好看，完全）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>気障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>きざ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗筋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらすじ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（概要）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いこう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（以后）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんだて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕舞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>しまい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>完了，售</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうかえ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兑换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（努力和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうだち</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（夏天傍晚的</t>
     </r>
     <r>
       <rPr>
@@ -2139,7 +2471,120 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>赛</t>
+      <t>雷阵雨）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゃま</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（妨碍，干扰）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普段着</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふだんぎ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひっし</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拼命）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いったい</t>
+  </si>
+  <si>
+    <t>いっそう</t>
+  </si>
+  <si>
+    <t>（更加，越发，索性，干脆）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一層</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（究竟，到底，总的来说，整体）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭を駆け巡る</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたまをかけめぐる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（头脑飞速运转）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心細い</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>こころぼそい</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（心里没底）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちど</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（同时，一同）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一瞬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっしゅん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（瞬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>间</t>
     </r>
     <r>
       <rPr>
@@ -2154,26 +2599,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>相違</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>そうい</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>异</t>
+    <t>一時</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちじ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一応</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちおう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（大致，暂且，首先）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>たしょう</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（稍微）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>さきほど</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>刚</t>
     </r>
     <r>
       <rPr>
@@ -2183,508 +2659,6 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心身</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>しんしん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（身心）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配達</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>はいたつ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>はいふ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（分发，广泛发放）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（配送）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>候補者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>こうほしゃ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（候补）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ごうりゅう</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（河流合流，人会合）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手首</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>てくび</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（手腕）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>余分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>よぶん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（剩下的）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>じょうひん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（上等品）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>器用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>見事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>みごと</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>きよう</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（精巧，手巧，巧妙）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（巧妙，好看，完全）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>気障</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>きざ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗筋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>あらすじ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（概要）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以降</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いこう</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（以后）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>献立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>こんだて</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仕舞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>しまい</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>完了，售</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>罄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>りょうかえ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兑换</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>换钱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（努力和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夕立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ゆうだち</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（夏天傍晚的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雷阵雨）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>じゃま</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（妨碍，干扰）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普段着</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ふだんぎ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>必死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ひっし</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（拼命）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いったい</t>
-  </si>
-  <si>
-    <t>いっそう</t>
-  </si>
-  <si>
-    <t>（更加，越发，索性，干脆）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一層</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（究竟，到底，总的来说，整体）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>頭を駆け巡る</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>あたまをかけめぐる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（头脑飞速运转）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心細い</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>こころぼそい</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（心里没底）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いちど</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（同时，一同）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一瞬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いっしゅん</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（瞬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一時</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いちじ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一応</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>いちおう</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（大致，暂且，首先）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>たしょう</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（稍微）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>さきほど</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>刚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>才）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2819,10 +2793,6 @@
   </si>
   <si>
     <t>達人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>たつじんきゅう</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5116,6 +5086,10 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>たつじん</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5533,10 +5507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E239"/>
+  <dimension ref="A2:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5698,7 +5672,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -5800,7 +5774,7 @@
         <v>231</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -5849,13 +5823,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -5968,10 +5942,10 @@
         <v>241</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -6188,7 +6162,7 @@
         <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>250</v>
@@ -6224,7 +6198,7 @@
         <v>147</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -6246,7 +6220,7 @@
         <v>152</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -6268,7 +6242,7 @@
         <v>160</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -6301,7 +6275,7 @@
         <v>168</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -6323,7 +6297,7 @@
         <v>173</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -6405,13 +6379,13 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -6422,7 +6396,7 @@
         <v>197</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -6510,202 +6484,202 @@
         <v>220</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="A89" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>690</v>
+      <c r="B90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>295</v>
+      <c r="B100" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>691</v>
+      <c r="B101" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="A103" s="7" t="s">
         <v>304</v>
       </c>
+      <c r="B103" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>722</v>
+      <c r="B104" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>311</v>
@@ -6713,310 +6687,310 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="A109" s="7" t="s">
         <v>318</v>
       </c>
+      <c r="B109" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>692</v>
+      <c r="B110" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>344</v>
+      <c r="A117" t="s">
+        <v>329</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
+      </c>
+      <c r="C117" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>330</v>
+      <c r="A118" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C119" t="s">
-        <v>335</v>
+        <v>347</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C126" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="B126" t="s">
+        <v>368</v>
+      </c>
+      <c r="C126" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B127" t="s">
-        <v>369</v>
-      </c>
-      <c r="C127" t="s">
-        <v>370</v>
+      <c r="A127" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>693</v>
+      <c r="C128" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C129" s="8" t="s">
+      <c r="A129" s="1" t="s">
         <v>375</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
@@ -7026,129 +7000,129 @@
       <c r="B135" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>390</v>
+      <c r="C135" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C137" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="C137" s="2" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B138" s="1" t="s">
+      <c r="A138" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="B138" s="7" t="s">
         <v>401</v>
       </c>
+      <c r="C138" s="9" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B139" s="7" t="s">
+      <c r="A139" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="B139" s="1" t="s">
         <v>404</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="A141" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="B141" s="7" t="s">
         <v>410</v>
       </c>
+      <c r="C141" s="9" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="A142" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="B142" s="1" t="s">
         <v>413</v>
       </c>
+      <c r="C142" s="3" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="A143" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="B143" s="7" t="s">
         <v>416</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B146" s="7" t="s">
+      <c r="A146" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="B146" s="1" t="s">
         <v>425</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
@@ -7158,8 +7132,8 @@
       <c r="B147" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>434</v>
+      <c r="C147" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
@@ -7169,96 +7143,96 @@
       <c r="B148" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>433</v>
+      <c r="C148" s="2" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C150" s="1" t="s">
         <v>437</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="A152" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="B152" s="7" t="s">
         <v>443</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
-        <v>444</v>
+        <v>98</v>
       </c>
       <c r="B153" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
-        <v>98</v>
+        <v>446</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C154" s="8" t="s">
         <v>447</v>
       </c>
+      <c r="C154" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A155" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="A155" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="B155" s="1" t="s">
         <v>450</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
@@ -7269,262 +7243,262 @@
         <v>455</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C159" s="2" t="s">
         <v>462</v>
+      </c>
+      <c r="C159" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C161" t="s">
         <v>468</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A166" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="A166" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="B166" s="7" t="s">
         <v>483</v>
       </c>
+      <c r="C166" s="7" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A167" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B167" s="7" t="s">
+      <c r="A167" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="B167" s="1" t="s">
         <v>486</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C168" s="2" t="s">
         <v>489</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C169" s="1" t="s">
         <v>492</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>495</v>
+        <v>530</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>533</v>
+        <v>495</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>506</v>
+        <v>104</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>507</v>
+        <v>105</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>104</v>
+        <v>511</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C178" s="1" t="s">
         <v>512</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C180" s="2" t="s">
         <v>518</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>521</v>
@@ -7532,46 +7506,46 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C185" s="1" t="s">
         <v>536</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
@@ -7582,7 +7556,7 @@
         <v>538</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
@@ -7593,7 +7567,7 @@
         <v>540</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
@@ -7604,128 +7578,128 @@
         <v>542</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>549</v>
+        <v>217</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>217</v>
+        <v>551</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>218</v>
+        <v>552</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A194" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="A194" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="B194" s="7" t="s">
         <v>561</v>
       </c>
+      <c r="C194" s="7" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>694</v>
+      <c r="C195" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C196" s="1" t="s">
         <v>566</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C197" s="5" t="s">
         <v>569</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A199" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="A199" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="B199" s="7" t="s">
         <v>575</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
@@ -7736,7 +7710,7 @@
         <v>577</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
@@ -7747,29 +7721,29 @@
         <v>579</v>
       </c>
       <c r="C201" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C203" s="7" t="s">
         <v>696</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A202" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A203" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
@@ -7780,7 +7754,7 @@
         <v>586</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
@@ -7791,62 +7765,62 @@
         <v>588</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>700</v>
+      <c r="C206" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>602</v>
+        <v>714</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
@@ -7856,319 +7830,319 @@
       <c r="B211" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>716</v>
+      <c r="C211" s="6" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A212" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B212" s="1" t="s">
+      <c r="A212" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="B212" s="7" t="s">
         <v>607</v>
       </c>
+      <c r="C212" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A213" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B213" s="7" t="s">
+      <c r="A213" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="D213" s="7" t="s">
+      <c r="B213" s="1" t="s">
         <v>610</v>
       </c>
+      <c r="C213" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="E213" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A217" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D217" s="1" t="s">
+      <c r="A217" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>632</v>
+      <c r="B217" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B218" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B218" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="C218" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C219" s="7" t="s">
-        <v>703</v>
+      <c r="C219" s="1" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A226" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B226" s="1" t="s">
+      <c r="A226" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="B226" s="7" t="s">
         <v>656</v>
       </c>
+      <c r="C226" s="7" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A227" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="B227" s="7" t="s">
+      <c r="A227" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="B227" s="1" t="s">
         <v>659</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A229" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B229" s="1" t="s">
+      <c r="A229" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="B229" s="7" t="s">
         <v>665</v>
       </c>
+      <c r="C229" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D229" s="7"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A230" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="B230" s="7" t="s">
+      <c r="A230" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="B230" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D230" s="7"/>
+      <c r="C230" s="5" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A231" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B231" s="1" t="s">
+      <c r="A231" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="B231" s="7" t="s">
         <v>671</v>
       </c>
+      <c r="C231" s="7" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A232" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="B232" s="7" t="s">
+      <c r="A232" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="B232" s="1" t="s">
         <v>674</v>
       </c>
+      <c r="C232" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A233" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C233" s="1" t="s">
+      <c r="A233" s="7" t="s">
         <v>677</v>
       </c>
+      <c r="B233" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A234" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="C234" s="7" t="s">
+      <c r="A234" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>704</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>714</v>
+        <v>21</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
@@ -8176,21 +8150,10 @@
         <v>717</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>21</v>
+        <v>718</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A239" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -8305,10 +8268,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/特殊（とくしゅ）.xlsx
+++ b/特殊（とくしゅ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE0E800-E7BB-475C-A778-2DE5ED674AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7A301E-D198-4397-9B2E-D524BA178632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="731">
   <si>
     <t>裏口</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5090,6 +5090,54 @@
   </si>
   <si>
     <t>たつじん</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清書</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいしょ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（抄写）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿退社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ことぶきたいしゃ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女社员因结婚而离职）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在庫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ざいこ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（存货）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5507,10 +5555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E238"/>
+  <dimension ref="A2:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8154,6 +8202,39 @@
       </c>
       <c r="C238" s="1" t="s">
         <v>719</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A239" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A240" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>
